--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/C3-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/C3-Nrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H2">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I2">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J2">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N2">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O2">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P2">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q2">
-        <v>57.15616948932532</v>
+        <v>91.00848472390666</v>
       </c>
       <c r="R2">
-        <v>514.4055254039279</v>
+        <v>819.07636251516</v>
       </c>
       <c r="S2">
-        <v>0.0004991082081861062</v>
+        <v>0.0009142512666303524</v>
       </c>
       <c r="T2">
-        <v>0.0005164524101237922</v>
+        <v>0.0009315832076981496</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H3">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I3">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J3">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>143.942475</v>
       </c>
       <c r="O3">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P3">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q3">
-        <v>25.126262570225</v>
+        <v>68.80181612380001</v>
       </c>
       <c r="R3">
-        <v>226.136363132025</v>
+        <v>619.2163451142001</v>
       </c>
       <c r="S3">
-        <v>0.0002194115526265414</v>
+        <v>0.0006911679469060452</v>
       </c>
       <c r="T3">
-        <v>0.0002270361883544254</v>
+        <v>0.0007042707804059407</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H4">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I4">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J4">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N4">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O4">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P4">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q4">
-        <v>32.60776663365999</v>
+        <v>92.54401027282935</v>
       </c>
       <c r="R4">
-        <v>293.4698997029399</v>
+        <v>832.8960924554641</v>
       </c>
       <c r="S4">
-        <v>0.0002847427342120307</v>
+        <v>0.0009296768193390335</v>
       </c>
       <c r="T4">
-        <v>0.0002946376535931617</v>
+        <v>0.0009473011907049812</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H5">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I5">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J5">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N5">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O5">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P5">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q5">
-        <v>15.974117526289</v>
+        <v>20.639248551764</v>
       </c>
       <c r="R5">
-        <v>95.84470515773398</v>
+        <v>123.835491310584</v>
       </c>
       <c r="S5">
-        <v>0.0001394917337381996</v>
+        <v>0.0002073373618733832</v>
       </c>
       <c r="T5">
-        <v>9.622608337546057E-05</v>
+        <v>0.000140845310036468</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H6">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I6">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J6">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N6">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O6">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P6">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q6">
-        <v>30.79736972305333</v>
+        <v>113.5367544604827</v>
       </c>
       <c r="R6">
-        <v>277.17632750748</v>
+        <v>1021.830790144344</v>
       </c>
       <c r="S6">
-        <v>0.0002689336979132054</v>
+        <v>0.001140565320799462</v>
       </c>
       <c r="T6">
-        <v>0.0002782792472108359</v>
+        <v>0.001162187616163547</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>872.6930850000001</v>
       </c>
       <c r="I7">
-        <v>0.7841854820267643</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J7">
-        <v>0.78470967813754</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N7">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O7">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P7">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q7">
-        <v>31749.96220823695</v>
+        <v>18462.47721781824</v>
       </c>
       <c r="R7">
-        <v>285749.6598741325</v>
+        <v>166162.2949603642</v>
       </c>
       <c r="S7">
-        <v>0.2772520777602024</v>
+        <v>0.1854699947233643</v>
       </c>
       <c r="T7">
-        <v>0.286886693952535</v>
+        <v>0.1889860467494533</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>872.6930850000001</v>
       </c>
       <c r="I8">
-        <v>0.7841854820267643</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J8">
-        <v>0.78470967813754</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>143.942475</v>
       </c>
       <c r="O8">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P8">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q8">
         <v>13957.51139669838</v>
@@ -948,10 +948,10 @@
         <v>125617.6025702854</v>
       </c>
       <c r="S8">
-        <v>0.121882004448257</v>
+        <v>0.1402140966542982</v>
       </c>
       <c r="T8">
-        <v>0.1261174509166755</v>
+        <v>0.1428722088700391</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>872.6930850000001</v>
       </c>
       <c r="I9">
-        <v>0.7841854820267643</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J9">
-        <v>0.78470967813754</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N9">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O9">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P9">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q9">
-        <v>18113.4489515969</v>
+        <v>18773.98229946384</v>
       </c>
       <c r="R9">
-        <v>163021.0405643721</v>
+        <v>168965.8406951746</v>
       </c>
       <c r="S9">
-        <v>0.1581731444055305</v>
+        <v>0.1885993064168868</v>
       </c>
       <c r="T9">
-        <v>0.1636697219265825</v>
+        <v>0.1921746824470373</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>872.6930850000001</v>
       </c>
       <c r="I10">
-        <v>0.7841854820267643</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J10">
-        <v>0.78470967813754</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N10">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O10">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P10">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q10">
-        <v>8873.541251996137</v>
+        <v>4186.990447493234</v>
       </c>
       <c r="R10">
-        <v>53241.24751197682</v>
+        <v>25121.9426849594</v>
       </c>
       <c r="S10">
-        <v>0.07748695047481159</v>
+        <v>0.04206158724214339</v>
       </c>
       <c r="T10">
-        <v>0.05345310117726006</v>
+        <v>0.02857264721716394</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>872.6930850000001</v>
       </c>
       <c r="I11">
-        <v>0.7841854820267643</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J11">
-        <v>0.78470967813754</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N11">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O11">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P11">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q11">
-        <v>17107.78265157647</v>
+        <v>23032.68479824553</v>
       </c>
       <c r="R11">
-        <v>153970.0438641882</v>
+        <v>207294.1631842097</v>
       </c>
       <c r="S11">
-        <v>0.1493913049379628</v>
+        <v>0.2313812971897781</v>
       </c>
       <c r="T11">
-        <v>0.1545827101644869</v>
+        <v>0.235767713871337</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>38.68424166666667</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H12">
-        <v>116.052725</v>
+        <v>164.122079</v>
       </c>
       <c r="I12">
-        <v>0.1042827812651277</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J12">
-        <v>0.1043524900644015</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N12">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O12">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P12">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q12">
-        <v>4222.182685122244</v>
+        <v>3472.125763983182</v>
       </c>
       <c r="R12">
-        <v>37999.6441661002</v>
+        <v>31249.13187584864</v>
       </c>
       <c r="S12">
-        <v>0.0368696162362549</v>
+        <v>0.03488021350153998</v>
       </c>
       <c r="T12">
-        <v>0.03815084956177085</v>
+        <v>0.03554145601430021</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>38.68424166666667</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H13">
-        <v>116.052725</v>
+        <v>164.122079</v>
       </c>
       <c r="I13">
-        <v>0.1042827812651277</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J13">
-        <v>0.1043524900644015</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>143.942475</v>
       </c>
       <c r="O13">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P13">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q13">
-        <v>1856.101829666042</v>
+        <v>2624.904250378392</v>
       </c>
       <c r="R13">
-        <v>16704.91646699437</v>
+        <v>23624.13825340552</v>
       </c>
       <c r="S13">
-        <v>0.01620814807382408</v>
+        <v>0.02636921209019361</v>
       </c>
       <c r="T13">
-        <v>0.01677138744480133</v>
+        <v>0.02686910708255819</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>38.68424166666667</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H14">
-        <v>116.052725</v>
+        <v>164.122079</v>
       </c>
       <c r="I14">
-        <v>0.1042827812651277</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J14">
-        <v>0.1043524900644015</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N14">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O14">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P14">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q14">
-        <v>2408.767923239833</v>
+        <v>3530.708629480209</v>
       </c>
       <c r="R14">
-        <v>21678.9113091585</v>
+        <v>31776.37766532188</v>
       </c>
       <c r="S14">
-        <v>0.02103422697577616</v>
+        <v>0.03546872411289645</v>
       </c>
       <c r="T14">
-        <v>0.02176517444225211</v>
+        <v>0.03614112333017119</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>38.68424166666667</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H15">
-        <v>116.052725</v>
+        <v>164.122079</v>
       </c>
       <c r="I15">
-        <v>0.1042827812651277</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J15">
-        <v>0.1043524900644015</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N15">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O15">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P15">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q15">
-        <v>1180.023837010308</v>
+        <v>787.4218196603788</v>
       </c>
       <c r="R15">
-        <v>7080.14302206185</v>
+        <v>4724.530917962273</v>
       </c>
       <c r="S15">
-        <v>0.01030439212720693</v>
+        <v>0.007910266808428358</v>
       </c>
       <c r="T15">
-        <v>0.007108315807637844</v>
+        <v>0.005373483925124155</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>38.68424166666667</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H16">
-        <v>116.052725</v>
+        <v>164.122079</v>
       </c>
       <c r="I16">
-        <v>0.1042827812651277</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J16">
-        <v>0.1043524900644015</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N16">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O16">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P16">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q16">
-        <v>2275.032115584111</v>
+        <v>4331.616898327721</v>
       </c>
       <c r="R16">
-        <v>20475.289040257</v>
+        <v>38984.55208494949</v>
       </c>
       <c r="S16">
-        <v>0.01986639785206563</v>
+        <v>0.04351447283039173</v>
       </c>
       <c r="T16">
-        <v>0.02055676280793941</v>
+        <v>0.04433939952857649</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.7434085</v>
+        <v>0.909222</v>
       </c>
       <c r="H17">
-        <v>1.486817</v>
+        <v>1.818444</v>
       </c>
       <c r="I17">
-        <v>0.002004038405719556</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J17">
-        <v>0.001336918682608127</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N17">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O17">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P17">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q17">
-        <v>81.13915024415067</v>
+        <v>57.70582149486999</v>
       </c>
       <c r="R17">
-        <v>486.834901464904</v>
+        <v>346.2349289692199</v>
       </c>
       <c r="S17">
-        <v>0.0007085362132195491</v>
+        <v>0.0005797000197693788</v>
       </c>
       <c r="T17">
-        <v>0.0004887720791811088</v>
+        <v>0.000393793131516864</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.7434085</v>
+        <v>0.909222</v>
       </c>
       <c r="H18">
-        <v>1.486817</v>
+        <v>1.818444</v>
       </c>
       <c r="I18">
-        <v>0.002004038405719556</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J18">
-        <v>0.001336918682608127</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>143.942475</v>
       </c>
       <c r="O18">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P18">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q18">
-        <v>35.6693531420125</v>
+        <v>43.62522166815</v>
       </c>
       <c r="R18">
-        <v>214.016118852075</v>
+        <v>261.7513300089</v>
       </c>
       <c r="S18">
-        <v>0.0003114776076306554</v>
+        <v>0.0004382494037576141</v>
       </c>
       <c r="T18">
-        <v>0.0002148677160878142</v>
+        <v>0.0002977050184675972</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.7434085</v>
+        <v>0.909222</v>
       </c>
       <c r="H19">
-        <v>1.486817</v>
+        <v>1.818444</v>
       </c>
       <c r="I19">
-        <v>0.002004038405719556</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J19">
-        <v>0.001336918682608127</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N19">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O19">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P19">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q19">
-        <v>46.29012930107</v>
+        <v>58.679453387498</v>
       </c>
       <c r="R19">
-        <v>277.74077580642</v>
+        <v>352.076720324988</v>
       </c>
       <c r="S19">
-        <v>0.0004042220410952339</v>
+        <v>0.0005894809121088932</v>
       </c>
       <c r="T19">
-        <v>0.0002788459415210281</v>
+        <v>0.0004004373407493201</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.7434085</v>
+        <v>0.909222</v>
       </c>
       <c r="H20">
-        <v>1.486817</v>
+        <v>1.818444</v>
       </c>
       <c r="I20">
-        <v>0.002004038405719556</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J20">
-        <v>0.001336918682608127</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N20">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O20">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P20">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q20">
-        <v>22.6769276801405</v>
+        <v>13.086744563757</v>
       </c>
       <c r="R20">
-        <v>90.70771072056201</v>
+        <v>52.346978255028</v>
       </c>
       <c r="S20">
-        <v>0.000198023080320571</v>
+        <v>0.0001314665641316824</v>
       </c>
       <c r="T20">
-        <v>9.10686481869743E-05</v>
+        <v>5.95372643478302E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.7434085</v>
+        <v>0.909222</v>
       </c>
       <c r="H21">
-        <v>1.486817</v>
+        <v>1.818444</v>
       </c>
       <c r="I21">
-        <v>0.002004038405719556</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J21">
-        <v>0.001336918682608127</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N21">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O21">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P21">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q21">
-        <v>43.72008186360667</v>
+        <v>71.99033920715799</v>
       </c>
       <c r="R21">
-        <v>262.32049118164</v>
+        <v>431.942035242948</v>
       </c>
       <c r="S21">
-        <v>0.0003817794634535467</v>
+        <v>0.0007231991501118096</v>
       </c>
       <c r="T21">
-        <v>0.0002633642976312021</v>
+        <v>0.0004912728106274035</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>40.106198</v>
+        <v>21.33956566666667</v>
       </c>
       <c r="H22">
-        <v>120.318594</v>
+        <v>64.018697</v>
       </c>
       <c r="I22">
-        <v>0.1081160103757125</v>
+        <v>0.05778573366465133</v>
       </c>
       <c r="J22">
-        <v>0.1081882815327926</v>
+        <v>0.05783319729352075</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N22">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O22">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P22">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q22">
-        <v>4377.381783021925</v>
+        <v>1354.363584623693</v>
       </c>
       <c r="R22">
-        <v>39396.43604719733</v>
+        <v>12189.27226161323</v>
       </c>
       <c r="S22">
-        <v>0.03822487052213346</v>
+        <v>0.0136056393695232</v>
       </c>
       <c r="T22">
-        <v>0.03955319945462534</v>
+        <v>0.01386356861539826</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>40.106198</v>
+        <v>21.33956566666667</v>
       </c>
       <c r="H23">
-        <v>120.318594</v>
+        <v>64.018697</v>
       </c>
       <c r="I23">
-        <v>0.1081160103757125</v>
+        <v>0.05778573366465133</v>
       </c>
       <c r="J23">
-        <v>0.1081882815327926</v>
+        <v>0.05783319729352075</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>143.942475</v>
       </c>
       <c r="O23">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P23">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q23">
-        <v>1924.32846765335</v>
+        <v>1023.889965828342</v>
       </c>
       <c r="R23">
-        <v>17318.95620888015</v>
+        <v>9215.009692455076</v>
       </c>
       <c r="S23">
-        <v>0.01680392759055267</v>
+        <v>0.010285773914251</v>
       </c>
       <c r="T23">
-        <v>0.01738787052857008</v>
+        <v>0.01048076672839885</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>40.106198</v>
+        <v>21.33956566666667</v>
       </c>
       <c r="H24">
-        <v>120.318594</v>
+        <v>64.018697</v>
       </c>
       <c r="I24">
-        <v>0.1081160103757125</v>
+        <v>0.05778573366465133</v>
       </c>
       <c r="J24">
-        <v>0.1081882815327926</v>
+        <v>0.05783319729352075</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N24">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O24">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P24">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q24">
-        <v>2497.30947546916</v>
+        <v>1377.214859348564</v>
       </c>
       <c r="R24">
-        <v>22475.78527922244</v>
+        <v>12394.93373413707</v>
       </c>
       <c r="S24">
-        <v>0.02180740362281247</v>
+        <v>0.01383519826092449</v>
       </c>
       <c r="T24">
-        <v>0.02256521927474351</v>
+        <v>0.01409747937517816</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>40.106198</v>
+        <v>21.33956566666667</v>
       </c>
       <c r="H25">
-        <v>120.318594</v>
+        <v>64.018697</v>
       </c>
       <c r="I25">
-        <v>0.1081160103757125</v>
+        <v>0.05778573366465133</v>
       </c>
       <c r="J25">
-        <v>0.1081882815327926</v>
+        <v>0.05783319729352075</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N25">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O25">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P25">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q25">
-        <v>1223.399183048614</v>
+        <v>307.1476987811399</v>
       </c>
       <c r="R25">
-        <v>7340.395098291685</v>
+        <v>1842.886192686839</v>
       </c>
       <c r="S25">
-        <v>0.0106831612335704</v>
+        <v>0.003085538381450385</v>
       </c>
       <c r="T25">
-        <v>0.007369603459832244</v>
+        <v>0.002096021701241636</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>40.106198</v>
+        <v>21.33956566666667</v>
       </c>
       <c r="H26">
-        <v>120.318594</v>
+        <v>64.018697</v>
       </c>
       <c r="I26">
-        <v>0.1081160103757125</v>
+        <v>0.05778573366465133</v>
       </c>
       <c r="J26">
-        <v>0.1081882815327926</v>
+        <v>0.05783319729352075</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N26">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O26">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P26">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q26">
-        <v>2358.657803614054</v>
+        <v>1689.623184301256</v>
       </c>
       <c r="R26">
-        <v>21227.92023252648</v>
+        <v>15206.6086587113</v>
       </c>
       <c r="S26">
-        <v>0.02059664740664346</v>
+        <v>0.01697358373850224</v>
       </c>
       <c r="T26">
-        <v>0.02131238881502146</v>
+        <v>0.01729536087330384</v>
       </c>
     </row>
   </sheetData>
